--- a/data/trans_orig/P05A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F73094-4F0E-40C3-B68D-0BE48015FE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54CD16C0-5799-4830-8049-661D1F032FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{895F2BC4-98C5-49E7-B81E-67C2754F54B2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27B3716F-A658-4EF9-AE65-E96BEC7E8B20}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="752">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>92,64%</t>
   </si>
   <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,06%</t>
+    <t>90,01%</t>
   </si>
   <si>
     <t>94,87%</t>
@@ -107,19 +107,19 @@
     <t>7,36%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>7,17%</t>
@@ -128,7 +128,7 @@
     <t>5,13%</t>
   </si>
   <si>
-    <t>9,94%</t>
+    <t>9,99%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -158,2107 +158,2140 @@
     <t>79,53%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
     <t>3,25%</t>
   </si>
   <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2015 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -2673,7 +2706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A54204A-00A5-4FBD-A606-F6A9A3F530F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4836C650-CA33-4431-856D-810C9375897A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3278,10 +3311,10 @@
         <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3290,13 +3323,13 @@
         <v>7818</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3350,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3332,7 +3365,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3341,13 +3374,13 @@
         <v>1012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,7 +3436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3415,13 +3448,13 @@
         <v>338482</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
@@ -3430,13 +3463,13 @@
         <v>356089</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>711</v>
@@ -3445,13 +3478,13 @@
         <v>694571</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3499,13 @@
         <v>11403</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3481,13 +3514,13 @@
         <v>8718</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -3496,13 +3529,13 @@
         <v>20122</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3550,13 @@
         <v>4505</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3532,13 +3565,13 @@
         <v>2940</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -3547,13 +3580,13 @@
         <v>7444</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,7 +3642,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3621,13 +3654,13 @@
         <v>142963</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -3636,13 +3669,13 @@
         <v>144099</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>284</v>
@@ -3651,13 +3684,13 @@
         <v>287062</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3705,13 @@
         <v>39608</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -3687,13 +3720,13 @@
         <v>42967</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>79</v>
@@ -3702,13 +3735,13 @@
         <v>82575</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3756,13 @@
         <v>19869</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3738,13 +3771,13 @@
         <v>16020</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3753,13 +3786,13 @@
         <v>35889</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,7 +3848,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3827,13 +3860,13 @@
         <v>257081</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -3842,13 +3875,13 @@
         <v>265451</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>511</v>
@@ -3857,13 +3890,13 @@
         <v>522532</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3911,13 @@
         <v>13730</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3893,13 +3926,13 @@
         <v>11759</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3908,13 +3941,13 @@
         <v>25489</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,7 +3983,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3965,7 +3998,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,7 +4054,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4033,13 +4066,13 @@
         <v>587825</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>594</v>
@@ -4048,13 +4081,13 @@
         <v>611123</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>1164</v>
@@ -4063,13 +4096,13 @@
         <v>1198949</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4117,13 @@
         <v>19977</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -4099,13 +4132,13 @@
         <v>20736</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>40</v>
@@ -4114,13 +4147,13 @@
         <v>40713</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>22</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,10 +4171,10 @@
         <v>33</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -4150,13 +4183,13 @@
         <v>4893</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>76</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -4165,10 +4198,10 @@
         <v>9299</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>184</v>
@@ -4341,13 +4374,13 @@
         <v>13766</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -4356,13 +4389,13 @@
         <v>18548</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M34" s="7">
         <v>31</v>
@@ -4371,13 +4404,13 @@
         <v>32313</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,28 +4478,28 @@
         <v>2896029</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H36" s="7">
         <v>2926</v>
       </c>
       <c r="I36" s="7">
-        <v>2986631</v>
+        <v>2986630</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>5766</v>
@@ -4475,13 +4508,13 @@
         <v>5882660</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4529,13 @@
         <v>289752</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>269</v>
@@ -4511,13 +4544,13 @@
         <v>286995</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>553</v>
@@ -4526,13 +4559,13 @@
         <v>576747</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4580,13 @@
         <v>58268</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>71</v>
@@ -4562,13 +4595,13 @@
         <v>72642</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>128</v>
@@ -4577,13 +4610,13 @@
         <v>130909</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4643,7 @@
         <v>3266</v>
       </c>
       <c r="I39" s="7">
-        <v>3346268</v>
+        <v>3346267</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -4639,7 +4672,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4663,7 +4696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0809AD08-8D15-44B2-9B30-F7F03650AFF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA265B4-C29A-401E-B922-07C7F1624830}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4680,7 +4713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4785,39 +4818,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,39 +4863,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,39 +4908,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,39 +4953,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +5002,13 @@
         <v>404165</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H8" s="7">
         <v>401</v>
@@ -4984,13 +5017,13 @@
         <v>437505</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M8" s="7">
         <v>783</v>
@@ -4999,13 +5032,13 @@
         <v>841670</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5053,13 @@
         <v>66344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>252</v>
+        <v>199</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -5035,13 +5068,13 @@
         <v>63725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>120</v>
@@ -5050,13 +5083,13 @@
         <v>130069</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5104,13 @@
         <v>29285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5086,13 +5119,13 @@
         <v>16677</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5104,10 +5137,10 @@
         <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5208,13 @@
         <v>312578</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H12" s="7">
         <v>300</v>
@@ -5190,13 +5223,13 @@
         <v>323027</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>608</v>
@@ -5205,13 +5238,13 @@
         <v>635604</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>168</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5259,13 @@
         <v>10516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5241,13 +5274,13 @@
         <v>13991</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5256,13 +5289,13 @@
         <v>24507</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5283,7 +5316,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5292,13 +5325,13 @@
         <v>1946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5307,13 +5340,13 @@
         <v>1946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5402,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5381,13 +5414,13 @@
         <v>641387</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>583</v>
@@ -5396,13 +5429,13 @@
         <v>628540</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>1185</v>
@@ -5411,13 +5444,13 @@
         <v>1269927</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5471,7 @@
         <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -5447,13 +5480,13 @@
         <v>23805</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5462,13 +5495,13 @@
         <v>38744</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5516,13 @@
         <v>3744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5498,13 +5531,13 @@
         <v>12693</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -5513,13 +5546,13 @@
         <v>16438</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5575,7 +5608,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5587,13 +5620,13 @@
         <v>149442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>147</v>
@@ -5602,13 +5635,13 @@
         <v>156096</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -5617,13 +5650,13 @@
         <v>305538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5671,13 @@
         <v>45580</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>44</v>
@@ -5653,13 +5686,13 @@
         <v>42634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -5668,13 +5701,13 @@
         <v>88214</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5722,13 @@
         <v>17596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -5704,13 +5737,13 @@
         <v>20861</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5719,13 +5752,13 @@
         <v>38457</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5781,7 +5814,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5793,13 +5826,13 @@
         <v>265047</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>262</v>
@@ -5808,13 +5841,13 @@
         <v>272968</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M24" s="7">
         <v>515</v>
@@ -5823,13 +5856,13 @@
         <v>538015</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5877,13 @@
         <v>6922</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>113</v>
+        <v>342</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5859,13 +5892,13 @@
         <v>6112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5874,13 +5907,13 @@
         <v>13034</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5928,13 @@
         <v>2013</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5916,7 +5949,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5925,13 +5958,13 @@
         <v>2013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,7 +6020,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5999,13 +6032,13 @@
         <v>652899</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>623</v>
@@ -6014,13 +6047,13 @@
         <v>679550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>1234</v>
@@ -6029,13 +6062,13 @@
         <v>1332449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6083,13 @@
         <v>3921</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -6065,13 +6098,13 @@
         <v>6537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>365</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6080,13 +6113,13 @@
         <v>10458</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,7 +6140,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6116,13 +6149,13 @@
         <v>972</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6131,13 +6164,13 @@
         <v>972</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6238,13 @@
         <v>675181</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="H32" s="7">
         <v>666</v>
@@ -6220,13 +6253,13 @@
         <v>722149</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M32" s="7">
         <v>1287</v>
@@ -6235,13 +6268,13 @@
         <v>1397330</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6289,13 @@
         <v>80673</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>199</v>
+        <v>380</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="H33" s="7">
         <v>77</v>
@@ -6271,13 +6304,13 @@
         <v>85891</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M33" s="7">
         <v>151</v>
@@ -6286,13 +6319,13 @@
         <v>166565</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6340,13 @@
         <v>17185</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>390</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -6322,13 +6355,13 @@
         <v>7738</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -6337,13 +6370,13 @@
         <v>24923</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>295</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6444,13 @@
         <v>3100699</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="H36" s="7">
         <v>2982</v>
@@ -6426,13 +6459,13 @@
         <v>3219833</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="M36" s="7">
         <v>5895</v>
@@ -6441,13 +6474,13 @@
         <v>6320533</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6495,13 @@
         <v>228895</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>226</v>
+        <v>407</v>
       </c>
       <c r="H37" s="7">
         <v>227</v>
@@ -6477,13 +6510,13 @@
         <v>242696</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M37" s="7">
         <v>438</v>
@@ -6492,13 +6525,13 @@
         <v>471591</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6546,13 @@
         <v>69822</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>404</v>
+        <v>181</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="H38" s="7">
         <v>57</v>
@@ -6528,13 +6561,13 @@
         <v>60887</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="M38" s="7">
         <v>120</v>
@@ -6543,13 +6576,13 @@
         <v>130710</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>295</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,7 +6638,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6629,7 +6662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D46D05-C4ED-4C4E-AFFC-60D7B81D401A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D1BB6C-D58B-4019-B93C-FD09B05965D2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6646,7 +6679,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6753,28 +6786,28 @@
         <v>242621</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>228</v>
       </c>
       <c r="I4" s="7">
-        <v>238791</v>
+        <v>238790</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M4" s="7">
         <v>448</v>
@@ -6783,13 +6816,13 @@
         <v>481412</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6837,13 @@
         <v>37932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -6819,13 +6852,13 @@
         <v>36569</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6834,13 +6867,13 @@
         <v>74501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,13 +6888,13 @@
         <v>8055</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -6870,13 +6903,13 @@
         <v>9435</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>440</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -6885,13 +6918,13 @@
         <v>17491</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,7 +6951,7 @@
         <v>274</v>
       </c>
       <c r="I7" s="7">
-        <v>284795</v>
+        <v>284794</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -6959,13 +6992,13 @@
         <v>363071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>350</v>
@@ -6974,13 +7007,13 @@
         <v>375656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M8" s="7">
         <v>695</v>
@@ -6989,13 +7022,13 @@
         <v>738727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,13 +7043,13 @@
         <v>68516</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -7025,13 +7058,13 @@
         <v>66189</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="M9" s="7">
         <v>125</v>
@@ -7040,13 +7073,13 @@
         <v>134705</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>448</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7094,13 @@
         <v>68869</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -7076,13 +7109,13 @@
         <v>77073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -7091,13 +7124,13 @@
         <v>145942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,13 +7198,13 @@
         <v>302499</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
         <v>308</v>
@@ -7180,13 +7213,13 @@
         <v>312352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="M12" s="7">
         <v>627</v>
@@ -7195,13 +7228,13 @@
         <v>614851</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>464</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7249,13 @@
         <v>15041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -7231,13 +7264,13 @@
         <v>20278</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -7246,13 +7279,13 @@
         <v>35319</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>473</v>
+        <v>99</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,7 +7306,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7282,13 +7315,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7297,13 +7330,13 @@
         <v>902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,7 +7392,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7371,13 +7404,13 @@
         <v>353975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>478</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>346</v>
@@ -7386,13 +7419,13 @@
         <v>374351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>684</v>
@@ -7401,13 +7434,13 @@
         <v>728325</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>492</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7422,13 +7455,13 @@
         <v>7962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>484</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7437,13 +7470,13 @@
         <v>7053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -7452,13 +7485,13 @@
         <v>15016</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,13 +7506,13 @@
         <v>1868</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7488,13 +7521,13 @@
         <v>2888</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -7503,13 +7536,13 @@
         <v>4755</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7565,7 +7598,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7577,13 +7610,13 @@
         <v>182590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -7592,13 +7625,13 @@
         <v>181810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -7607,13 +7640,13 @@
         <v>364400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,13 +7661,13 @@
         <v>26653</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -7643,13 +7676,13 @@
         <v>29093</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -7658,13 +7691,13 @@
         <v>55747</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>324</v>
+        <v>519</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,13 +7712,13 @@
         <v>1978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7694,13 +7727,13 @@
         <v>6703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -7709,13 +7742,13 @@
         <v>8681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>526</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,7 +7804,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7783,13 +7816,13 @@
         <v>248317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="H24" s="7">
         <v>253</v>
@@ -7798,13 +7831,13 @@
         <v>262567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>522</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>497</v>
@@ -7813,13 +7846,13 @@
         <v>510883</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,13 +7867,13 @@
         <v>13832</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -7849,13 +7882,13 @@
         <v>8511</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -7864,13 +7897,13 @@
         <v>22343</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,7 +7924,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7906,7 +7939,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7921,7 +7954,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>382</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,7 +8010,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7989,13 +8022,13 @@
         <v>567284</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>533</v>
+        <v>242</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="H28" s="7">
         <v>560</v>
@@ -8004,13 +8037,13 @@
         <v>600449</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -8019,13 +8052,13 @@
         <v>1167733</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,13 +8073,13 @@
         <v>72085</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>327</v>
+        <v>550</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -8055,13 +8088,13 @@
         <v>73191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>543</v>
+        <v>384</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>195</v>
+        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>132</v>
@@ -8070,13 +8103,13 @@
         <v>145275</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>546</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,13 +8124,13 @@
         <v>11419</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>547</v>
+        <v>104</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>98</v>
+        <v>555</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -8106,13 +8139,13 @@
         <v>9764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>33</v>
+        <v>496</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -8121,13 +8154,13 @@
         <v>21184</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>550</v>
+        <v>302</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>101</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,13 +8228,13 @@
         <v>737629</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>167</v>
+        <v>560</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="H32" s="7">
         <v>721</v>
@@ -8210,13 +8243,13 @@
         <v>786355</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="M32" s="7">
         <v>1433</v>
@@ -8225,13 +8258,13 @@
         <v>1523984</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>556</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8279,13 @@
         <v>29404</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -8261,13 +8294,13 @@
         <v>30028</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -8276,13 +8309,13 @@
         <v>59432</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>564</v>
+        <v>481</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,10 +8333,10 @@
         <v>35</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>31</v>
+        <v>574</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>484</v>
+        <v>575</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8312,13 +8345,13 @@
         <v>1085</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -8327,13 +8360,13 @@
         <v>4043</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>362</v>
+        <v>577</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>493</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,13 +8434,13 @@
         <v>2997987</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>570</v>
+        <v>397</v>
       </c>
       <c r="H36" s="7">
         <v>2954</v>
@@ -8416,13 +8449,13 @@
         <v>3132330</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>573</v>
+        <v>397</v>
       </c>
       <c r="M36" s="7">
         <v>5817</v>
@@ -8431,13 +8464,13 @@
         <v>6130317</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8452,13 +8485,13 @@
         <v>271425</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="H37" s="7">
         <v>253</v>
@@ -8467,13 +8500,13 @@
         <v>270913</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>397</v>
+        <v>589</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>541</v>
+        <v>590</v>
       </c>
       <c r="M37" s="7">
         <v>506</v>
@@ -8482,13 +8515,13 @@
         <v>542339</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8503,13 +8536,13 @@
         <v>95148</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>582</v>
+        <v>418</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="H38" s="7">
         <v>101</v>
@@ -8518,13 +8551,13 @@
         <v>107850</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>345</v>
+        <v>595</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="M38" s="7">
         <v>189</v>
@@ -8533,13 +8566,13 @@
         <v>202997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8595,7 +8628,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -8619,7 +8652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3007E858-5700-4B44-A338-6604234379A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5086937-0623-4EB7-AA48-FFDB26FDA329}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8636,7 +8669,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8743,13 +8776,13 @@
         <v>259671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -8758,10 +8791,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -8773,13 +8806,13 @@
         <v>531073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8794,13 +8827,13 @@
         <v>627</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>605</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8815,7 +8848,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -8824,13 +8857,13 @@
         <v>627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>596</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8851,7 +8884,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8866,7 +8899,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8881,7 +8914,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8949,13 +8982,13 @@
         <v>477493</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="H8" s="7">
         <v>648</v>
@@ -8964,13 +8997,13 @@
         <v>502536</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="M8" s="7">
         <v>994</v>
@@ -8979,13 +9012,13 @@
         <v>980029</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>606</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9000,13 +9033,13 @@
         <v>33934</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
@@ -9015,13 +9048,13 @@
         <v>36706</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>566</v>
+        <v>620</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="M9" s="7">
         <v>77</v>
@@ -9030,13 +9063,13 @@
         <v>70640</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9051,13 +9084,13 @@
         <v>5354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>625</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -9066,13 +9099,13 @@
         <v>11436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -9081,13 +9114,13 @@
         <v>16790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>345</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9155,13 +9188,13 @@
         <v>297171</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>500</v>
@@ -9173,10 +9206,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="M12" s="7">
         <v>836</v>
@@ -9188,10 +9221,10 @@
         <v>17</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>623</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9206,13 +9239,13 @@
         <v>11231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -9221,13 +9254,13 @@
         <v>17910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>638</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -9236,13 +9269,13 @@
         <v>29140</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>629</v>
+        <v>572</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9257,13 +9290,13 @@
         <v>11752</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>641</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -9272,13 +9305,13 @@
         <v>8794</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -9287,13 +9320,13 @@
         <v>20547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9349,7 +9382,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9361,13 +9394,13 @@
         <v>316142</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="H16" s="7">
         <v>579</v>
@@ -9376,13 +9409,13 @@
         <v>410286</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>465</v>
+        <v>651</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>640</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>864</v>
@@ -9391,13 +9424,13 @@
         <v>726428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>641</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9412,13 +9445,13 @@
         <v>5222</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -9427,13 +9460,13 @@
         <v>15865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>646</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>657</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -9442,13 +9475,13 @@
         <v>21087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9463,13 +9496,13 @@
         <v>876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -9478,13 +9511,13 @@
         <v>1304</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -9493,13 +9526,13 @@
         <v>2180</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>179</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>654</v>
+        <v>577</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>655</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9555,7 +9588,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9567,13 +9600,13 @@
         <v>170908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="H20" s="7">
         <v>453</v>
@@ -9582,13 +9615,13 @@
         <v>236852</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>661</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>700</v>
@@ -9597,13 +9630,13 @@
         <v>407760</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9618,13 +9651,13 @@
         <v>24335</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -9633,13 +9666,13 @@
         <v>22209</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>543</v>
+        <v>676</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -9648,13 +9681,13 @@
         <v>46544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9669,13 +9702,13 @@
         <v>1506</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>673</v>
+        <v>570</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9690,7 +9723,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -9699,13 +9732,13 @@
         <v>1506</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9761,7 +9794,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9773,13 +9806,13 @@
         <v>265375</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="H24" s="7">
         <v>443</v>
@@ -9788,13 +9821,13 @@
         <v>264067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>679</v>
+        <v>474</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="M24" s="7">
         <v>798</v>
@@ -9803,13 +9836,13 @@
         <v>529442</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>463</v>
+        <v>690</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9824,13 +9857,13 @@
         <v>9725</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -9839,13 +9872,13 @@
         <v>9590</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>685</v>
+        <v>393</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -9854,13 +9887,13 @@
         <v>19315</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>583</v>
+        <v>695</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>696</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9875,13 +9908,13 @@
         <v>2123</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>699</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -9890,13 +9923,13 @@
         <v>1243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -9905,13 +9938,13 @@
         <v>3366</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9967,7 +10000,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -9979,13 +10012,13 @@
         <v>579799</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="H28" s="7">
         <v>908</v>
@@ -9994,13 +10027,13 @@
         <v>769521</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="M28" s="7">
         <v>1464</v>
@@ -10009,13 +10042,13 @@
         <v>1349319</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10030,13 +10063,13 @@
         <v>21898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -10045,13 +10078,13 @@
         <v>13919</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>700</v>
+        <v>271</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>701</v>
+        <v>526</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>702</v>
+        <v>234</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -10060,13 +10093,13 @@
         <v>35816</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>562</v>
+        <v>711</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>703</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>516</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10081,13 +10114,13 @@
         <v>25739</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -10096,13 +10129,13 @@
         <v>16845</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>83</v>
+        <v>716</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>708</v>
+        <v>208</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
@@ -10111,13 +10144,13 @@
         <v>42583</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10185,13 +10218,13 @@
         <v>840822</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>711</v>
+        <v>70</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="H32" s="7">
         <v>1027</v>
@@ -10200,13 +10233,13 @@
         <v>839252</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>713</v>
+        <v>534</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="M32" s="7">
         <v>1771</v>
@@ -10215,13 +10248,13 @@
         <v>1680074</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>717</v>
+        <v>565</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10236,13 +10269,13 @@
         <v>16814</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>383</v>
+        <v>725</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>719</v>
+        <v>293</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -10251,13 +10284,13 @@
         <v>21319</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>673</v>
+        <v>570</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>708</v>
+        <v>208</v>
       </c>
       <c r="M33" s="7">
         <v>42</v>
@@ -10266,13 +10299,13 @@
         <v>38133</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>180</v>
+        <v>727</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10287,7 +10320,7 @@
         <v>709</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>31</v>
@@ -10302,13 +10335,13 @@
         <v>2224</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>722</v>
+        <v>107</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -10317,13 +10350,13 @@
         <v>2933</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>358</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10391,13 +10424,13 @@
         <v>3207380</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="H36" s="7">
         <v>5096</v>
@@ -10406,13 +10439,13 @@
         <v>3639756</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>554</v>
+        <v>736</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="M36" s="7">
         <v>8295</v>
@@ -10421,13 +10454,13 @@
         <v>6847135</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10442,13 +10475,13 @@
         <v>123784</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>77</v>
+        <v>742</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
@@ -10457,13 +10490,13 @@
         <v>137518</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>77</v>
+        <v>742</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="M37" s="7">
         <v>318</v>
@@ -10472,13 +10505,13 @@
         <v>261302</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>738</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10493,13 +10526,13 @@
         <v>48058</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>359</v>
+        <v>747</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>484</v>
+        <v>748</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="H38" s="7">
         <v>56</v>
@@ -10508,13 +10541,13 @@
         <v>41846</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>205</v>
+        <v>750</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>655</v>
+        <v>554</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
@@ -10523,13 +10556,13 @@
         <v>89904</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10585,7 +10618,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54CD16C0-5799-4830-8049-661D1F032FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D37449-4349-46AC-AF13-92D108AAE22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27B3716F-A658-4EF9-AE65-E96BEC7E8B20}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37174D39-CEE1-4A81-9C60-A28552652C00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="747">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>92,64%</t>
   </si>
   <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>93,03%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>7,36%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -158,55 +158,52 @@
     <t>79,53%</t>
   </si>
   <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>17,28%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>14,74%</t>
   </si>
   <si>
     <t>3,2%</t>
@@ -215,25 +212,25 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>5,16%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -242,7 +239,7 @@
     <t>98,81%</t>
   </si>
   <si>
-    <t>97,26%</t>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -251,7 +248,7 @@
     <t>98,49%</t>
   </si>
   <si>
-    <t>96,65%</t>
+    <t>96,73%</t>
   </si>
   <si>
     <t>99,42%</t>
@@ -260,2041 +257,2029 @@
     <t>98,64%</t>
   </si>
   <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>94,52%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
     <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
   </si>
 </sst>
 </file>
@@ -2706,7 +2691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4836C650-CA33-4431-856D-810C9375897A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718A7B20-88B1-47EF-A2F3-D10966F4BDA4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3123,7 +3108,7 @@
         <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3123,13 @@
         <v>15721</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3153,13 +3138,13 @@
         <v>29230</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -3168,13 +3153,13 @@
         <v>44951</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,7 +3215,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3242,13 +3227,13 @@
         <v>313031</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>328</v>
@@ -3257,13 +3242,13 @@
         <v>328463</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>632</v>
@@ -3272,13 +3257,13 @@
         <v>641494</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,13 +3278,13 @@
         <v>3785</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3308,13 +3293,13 @@
         <v>4033</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -3323,13 +3308,13 @@
         <v>7818</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3335,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3359,13 +3344,13 @@
         <v>1012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3374,13 +3359,13 @@
         <v>1012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3421,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3448,13 +3433,13 @@
         <v>338482</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>369</v>
@@ -3463,13 +3448,13 @@
         <v>356089</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>711</v>
@@ -3478,13 +3463,13 @@
         <v>694571</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3484,13 @@
         <v>11403</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3514,13 +3499,13 @@
         <v>8718</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -3529,13 +3514,13 @@
         <v>20122</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,13 +3535,13 @@
         <v>4505</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3565,13 +3550,13 @@
         <v>2940</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -3580,13 +3565,13 @@
         <v>7444</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,7 +3627,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3654,13 +3639,13 @@
         <v>142963</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -3669,13 +3654,13 @@
         <v>144099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>284</v>
@@ -3684,13 +3669,13 @@
         <v>287062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3690,13 @@
         <v>39608</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -3720,13 +3705,13 @@
         <v>42967</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M21" s="7">
         <v>79</v>
@@ -3735,13 +3720,13 @@
         <v>82575</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3741,13 @@
         <v>19869</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3771,13 +3756,13 @@
         <v>16020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -3786,13 +3771,13 @@
         <v>35889</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,7 +3833,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3860,13 +3845,13 @@
         <v>257081</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>258</v>
@@ -3875,13 +3860,13 @@
         <v>265451</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>511</v>
@@ -3890,13 +3875,13 @@
         <v>522532</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3896,13 @@
         <v>13730</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -3926,13 +3911,13 @@
         <v>11759</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -3941,13 +3926,13 @@
         <v>25489</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +3968,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3998,7 +3983,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,7 +4039,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4066,13 +4051,13 @@
         <v>587825</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>594</v>
@@ -4081,13 +4066,13 @@
         <v>611123</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>1164</v>
@@ -4186,7 +4171,7 @@
         <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>181</v>
@@ -4269,7 +4254,7 @@
         <v>608</v>
       </c>
       <c r="D32" s="7">
-        <v>618990</v>
+        <v>618989</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>186</v>
@@ -4374,7 +4359,7 @@
         <v>13766</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>204</v>
@@ -4404,13 +4389,13 @@
         <v>32313</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4407,7 @@
         <v>721</v>
       </c>
       <c r="D35" s="7">
-        <v>729413</v>
+        <v>729412</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>36</v>
@@ -4478,13 +4463,13 @@
         <v>2896029</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>2926</v>
@@ -4493,13 +4478,13 @@
         <v>2986630</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M36" s="7">
         <v>5766</v>
@@ -4508,13 +4493,13 @@
         <v>5882660</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4514,13 @@
         <v>289752</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H37" s="7">
         <v>269</v>
@@ -4544,13 +4529,13 @@
         <v>286995</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M37" s="7">
         <v>553</v>
@@ -4559,13 +4544,13 @@
         <v>576747</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4565,13 @@
         <v>58268</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H38" s="7">
         <v>71</v>
@@ -4595,13 +4580,13 @@
         <v>72642</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>233</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="M38" s="7">
         <v>128</v>
@@ -4610,13 +4595,13 @@
         <v>130909</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,7 +4681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA265B4-C29A-401E-B922-07C7F1624830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106D835-6E81-4447-82D8-7550D48163A6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5056,10 +5041,10 @@
         <v>249</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -5068,10 +5053,10 @@
         <v>63725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>253</v>
@@ -5107,10 +5092,10 @@
         <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5119,13 +5104,13 @@
         <v>16677</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5134,13 +5119,13 @@
         <v>45962</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5181,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5208,13 +5193,13 @@
         <v>312578</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H12" s="7">
         <v>300</v>
@@ -5223,13 +5208,13 @@
         <v>323027</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>608</v>
@@ -5259,10 +5244,10 @@
         <v>10516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>272</v>
@@ -5331,7 +5316,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5340,13 +5325,13 @@
         <v>1946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,7 +5387,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5414,13 +5399,13 @@
         <v>641387</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H16" s="7">
         <v>583</v>
@@ -5429,13 +5414,13 @@
         <v>628540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>1185</v>
@@ -5444,13 +5429,13 @@
         <v>1269927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,10 +5450,10 @@
         <v>14939</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>294</v>
@@ -5495,13 +5480,13 @@
         <v>38744</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,10 +5504,10 @@
         <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5531,13 +5516,13 @@
         <v>12693</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -5546,13 +5531,13 @@
         <v>16438</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>174</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,7 +5593,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5620,13 +5605,13 @@
         <v>149442</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>147</v>
@@ -5635,13 +5620,13 @@
         <v>156096</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -5650,13 +5635,13 @@
         <v>305538</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5656,13 @@
         <v>45580</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>44</v>
@@ -5686,13 +5671,13 @@
         <v>42634</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -5701,13 +5686,13 @@
         <v>88214</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,10 +5707,10 @@
         <v>17596</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>326</v>
@@ -5740,10 +5725,10 @@
         <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5752,13 +5737,13 @@
         <v>38457</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,7 +5799,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5826,13 +5811,13 @@
         <v>265047</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>262</v>
@@ -5841,22 +5826,22 @@
         <v>272968</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>515</v>
       </c>
       <c r="N24" s="7">
-        <v>538015</v>
+        <v>538016</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>339</v>
@@ -5880,10 +5865,10 @@
         <v>341</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5892,10 +5877,10 @@
         <v>6112</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>345</v>
@@ -5907,13 +5892,13 @@
         <v>13034</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5913,13 @@
         <v>2013</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5949,7 +5934,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -5958,13 +5943,13 @@
         <v>2013</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,7 +5991,7 @@
         <v>529</v>
       </c>
       <c r="N27" s="7">
-        <v>553061</v>
+        <v>553062</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -6020,7 +6005,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6032,13 +6017,13 @@
         <v>652899</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H28" s="7">
         <v>623</v>
@@ -6047,13 +6032,13 @@
         <v>679550</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M28" s="7">
         <v>1234</v>
@@ -6062,13 +6047,13 @@
         <v>1332449</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,10 +6071,10 @@
         <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -6098,13 +6083,13 @@
         <v>6537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6113,13 +6098,13 @@
         <v>10458</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,7 +6125,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6149,13 +6134,13 @@
         <v>972</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6164,13 +6149,13 @@
         <v>972</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>281</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6223,13 @@
         <v>675181</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H32" s="7">
         <v>666</v>
@@ -6253,13 +6238,13 @@
         <v>722149</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M32" s="7">
         <v>1287</v>
@@ -6268,13 +6253,13 @@
         <v>1397330</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6274,13 @@
         <v>80673</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H33" s="7">
         <v>77</v>
@@ -6304,13 +6289,13 @@
         <v>85891</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M33" s="7">
         <v>151</v>
@@ -6319,13 +6304,13 @@
         <v>166565</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6340,13 +6325,13 @@
         <v>17185</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -6355,13 +6340,13 @@
         <v>7738</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>392</v>
+        <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -6370,13 +6355,13 @@
         <v>24923</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6429,13 @@
         <v>3100699</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H36" s="7">
         <v>2982</v>
@@ -6459,13 +6444,13 @@
         <v>3219833</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M36" s="7">
         <v>5895</v>
@@ -6474,13 +6459,13 @@
         <v>6320533</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6495,13 +6480,13 @@
         <v>228895</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H37" s="7">
         <v>227</v>
@@ -6510,13 +6495,13 @@
         <v>242696</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>438</v>
@@ -6525,13 +6510,13 @@
         <v>471591</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6546,13 +6531,13 @@
         <v>69822</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>414</v>
+        <v>174</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>181</v>
+        <v>389</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H38" s="7">
         <v>57</v>
@@ -6561,13 +6546,13 @@
         <v>60887</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="M38" s="7">
         <v>120</v>
@@ -6576,13 +6561,13 @@
         <v>130710</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>418</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,7 +6647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D1BB6C-D58B-4019-B93C-FD09B05965D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71D00F-AC65-4B78-A8EF-9B5150B03D8B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6679,7 +6664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6786,28 +6771,28 @@
         <v>242621</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H4" s="7">
         <v>228</v>
       </c>
       <c r="I4" s="7">
-        <v>238790</v>
+        <v>238791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M4" s="7">
         <v>448</v>
@@ -6816,13 +6801,13 @@
         <v>481412</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6822,13 @@
         <v>37932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -6852,13 +6837,13 @@
         <v>36569</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6867,13 +6852,13 @@
         <v>74501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6873,13 @@
         <v>8055</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -6903,13 +6888,13 @@
         <v>9435</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>205</v>
+        <v>434</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -6918,13 +6903,13 @@
         <v>17491</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,7 +6936,7 @@
         <v>274</v>
       </c>
       <c r="I7" s="7">
-        <v>284794</v>
+        <v>284795</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -6992,13 +6977,13 @@
         <v>363071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H8" s="7">
         <v>350</v>
@@ -7007,13 +6992,13 @@
         <v>375656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>695</v>
@@ -7022,13 +7007,13 @@
         <v>738727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7028,13 @@
         <v>68516</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -7058,13 +7043,13 @@
         <v>66189</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>125</v>
@@ -7073,13 +7058,13 @@
         <v>134705</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7079,13 @@
         <v>68869</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -7109,13 +7094,13 @@
         <v>77073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -7124,13 +7109,13 @@
         <v>145942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,7 +7171,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7198,13 +7183,13 @@
         <v>302499</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>469</v>
       </c>
       <c r="H12" s="7">
         <v>308</v>
@@ -7213,13 +7198,13 @@
         <v>312352</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M12" s="7">
         <v>627</v>
@@ -7228,13 +7213,13 @@
         <v>614851</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>473</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>476</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7234,13 @@
         <v>15041</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -7264,13 +7249,13 @@
         <v>20278</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>263</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -7279,13 +7264,13 @@
         <v>35319</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>480</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7300,13 @@
         <v>902</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>485</v>
+        <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>486</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7330,13 +7315,13 @@
         <v>902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,7 +7377,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7404,13 +7389,13 @@
         <v>353975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>484</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>486</v>
       </c>
       <c r="H16" s="7">
         <v>346</v>
@@ -7419,13 +7404,13 @@
         <v>374351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>489</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M16" s="7">
         <v>684</v>
@@ -7434,13 +7419,13 @@
         <v>728325</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7440,13 @@
         <v>7962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>490</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7470,13 +7455,13 @@
         <v>7053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>496</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>497</v>
+        <v>299</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -7488,10 +7473,10 @@
         <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7491,13 @@
         <v>1868</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7521,13 +7506,13 @@
         <v>2888</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>503</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -7536,13 +7521,13 @@
         <v>4755</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>110</v>
+        <v>499</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7598,7 +7583,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7610,13 +7595,13 @@
         <v>182590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -7625,13 +7610,13 @@
         <v>181810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -7640,13 +7625,13 @@
         <v>364400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7646,13 @@
         <v>26653</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -7676,13 +7661,13 @@
         <v>29093</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>514</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -7691,13 +7676,13 @@
         <v>55747</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7697,13 @@
         <v>1978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>523</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7727,13 +7712,13 @@
         <v>6703</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>524</v>
+        <v>78</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>306</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -7742,13 +7727,13 @@
         <v>8681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>526</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,7 +7789,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7816,13 +7801,13 @@
         <v>248317</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>528</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H24" s="7">
         <v>253</v>
@@ -7831,13 +7816,13 @@
         <v>262567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>530</v>
+        <v>292</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>497</v>
@@ -7846,13 +7831,13 @@
         <v>510883</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,13 +7852,13 @@
         <v>13832</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -7882,13 +7867,13 @@
         <v>8511</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>536</v>
+        <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>351</v>
+        <v>532</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -7897,13 +7882,13 @@
         <v>22343</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,7 +7924,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8010,7 +7995,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8022,13 +8007,13 @@
         <v>567284</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>242</v>
+        <v>538</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H28" s="7">
         <v>560</v>
@@ -8037,13 +8022,13 @@
         <v>600449</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -8052,13 +8037,13 @@
         <v>1167733</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>212</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,13 +8058,13 @@
         <v>72085</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -8088,13 +8073,13 @@
         <v>73191</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M29" s="7">
         <v>132</v>
@@ -8109,7 +8094,7 @@
         <v>553</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>254</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8109,13 @@
         <v>11419</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>555</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -8139,13 +8124,13 @@
         <v>9764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -8154,13 +8139,13 @@
         <v>21184</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>302</v>
+        <v>560</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>304</v>
+        <v>561</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8213,13 @@
         <v>737629</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H32" s="7">
         <v>721</v>
@@ -8243,13 +8228,13 @@
         <v>786355</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M32" s="7">
         <v>1433</v>
@@ -8261,10 +8246,10 @@
         <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>169</v>
+        <v>569</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8279,13 +8264,13 @@
         <v>29404</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>566</v>
+        <v>478</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -8294,13 +8279,13 @@
         <v>30028</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>570</v>
+        <v>277</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -8309,13 +8294,13 @@
         <v>59432</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>481</v>
+        <v>574</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>573</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,10 +8318,10 @@
         <v>35</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>575</v>
+        <v>493</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8345,13 +8330,13 @@
         <v>1085</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>301</v>
+        <v>577</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -8360,13 +8345,13 @@
         <v>4043</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>110</v>
+        <v>499</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>577</v>
+        <v>366</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>83</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8434,13 +8419,13 @@
         <v>2997987</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>579</v>
+        <v>373</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>397</v>
+        <v>580</v>
       </c>
       <c r="H36" s="7">
         <v>2954</v>
@@ -8449,13 +8434,13 @@
         <v>3132330</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>581</v>
+        <v>419</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>397</v>
+        <v>582</v>
       </c>
       <c r="M36" s="7">
         <v>5817</v>
@@ -8464,10 +8449,10 @@
         <v>6130317</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>583</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>584</v>
@@ -8491,7 +8476,7 @@
         <v>586</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>587</v>
+        <v>514</v>
       </c>
       <c r="H37" s="7">
         <v>253</v>
@@ -8500,13 +8485,13 @@
         <v>270913</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="M37" s="7">
         <v>506</v>
@@ -8515,10 +8500,10 @@
         <v>542339</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>591</v>
@@ -8539,7 +8524,7 @@
         <v>592</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>418</v>
+        <v>293</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>593</v>
@@ -8554,10 +8539,10 @@
         <v>594</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>596</v>
       </c>
       <c r="M38" s="7">
         <v>189</v>
@@ -8566,10 +8551,10 @@
         <v>202997</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>598</v>
@@ -8652,7 +8637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5086937-0623-4EB7-AA48-FFDB26FDA329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835C95A-FEC3-4471-A78B-86647165BA12}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8779,10 +8764,10 @@
         <v>600</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>72</v>
+        <v>601</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -8791,10 +8776,10 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -8806,13 +8791,13 @@
         <v>531073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8827,13 +8812,13 @@
         <v>627</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>605</v>
+        <v>520</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8848,7 +8833,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -8857,13 +8842,13 @@
         <v>627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8884,7 +8869,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>606</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8899,7 +8884,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8988,7 +8973,7 @@
         <v>609</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="H8" s="7">
         <v>648</v>
@@ -8997,13 +8982,13 @@
         <v>502536</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="M8" s="7">
         <v>994</v>
@@ -9012,10 +8997,10 @@
         <v>980029</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>615</v>
@@ -9063,13 +9048,13 @@
         <v>70640</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>623</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>624</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,13 +9069,13 @@
         <v>5354</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>625</v>
+        <v>390</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>282</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -9099,10 +9084,10 @@
         <v>11436</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>295</v>
@@ -9114,13 +9099,13 @@
         <v>16790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>522</v>
+        <v>626</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9176,7 +9161,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -9188,13 +9173,13 @@
         <v>297171</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>500</v>
@@ -9224,7 +9209,7 @@
         <v>633</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>563</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,10 +9227,10 @@
         <v>634</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>495</v>
+        <v>635</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -9254,10 +9239,10 @@
         <v>17910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>637</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>638</v>
@@ -9269,10 +9254,10 @@
         <v>29140</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>640</v>
@@ -9290,13 +9275,13 @@
         <v>11752</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -9305,13 +9290,13 @@
         <v>8794</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>643</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -9320,13 +9305,13 @@
         <v>20547</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>646</v>
+        <v>234</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9382,7 +9367,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9394,13 +9379,13 @@
         <v>316142</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H16" s="7">
         <v>579</v>
@@ -9409,13 +9394,13 @@
         <v>410286</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M16" s="7">
         <v>864</v>
@@ -9424,13 +9409,13 @@
         <v>726428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>649</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9445,13 +9430,13 @@
         <v>5222</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>654</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>655</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>656</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -9460,13 +9445,13 @@
         <v>15865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>655</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -9475,13 +9460,13 @@
         <v>21087</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9496,13 +9481,13 @@
         <v>876</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>485</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -9511,13 +9496,13 @@
         <v>1304</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -9526,13 +9511,13 @@
         <v>2180</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>554</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9588,7 +9573,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9600,13 +9585,13 @@
         <v>170908</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="H20" s="7">
         <v>453</v>
@@ -9615,13 +9600,13 @@
         <v>236852</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>700</v>
@@ -9630,13 +9615,13 @@
         <v>407760</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9651,13 +9636,13 @@
         <v>24335</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
@@ -9666,13 +9651,13 @@
         <v>22209</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
@@ -9681,13 +9666,13 @@
         <v>46544</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>679</v>
+        <v>430</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9708,7 +9693,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>570</v>
+        <v>679</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9723,7 +9708,7 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -9732,13 +9717,13 @@
         <v>1506</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>684</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9794,7 +9779,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9806,13 +9791,13 @@
         <v>265375</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H24" s="7">
         <v>443</v>
@@ -9821,13 +9806,13 @@
         <v>264067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>474</v>
+        <v>685</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="M24" s="7">
         <v>798</v>
@@ -9836,13 +9821,13 @@
         <v>529442</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,10 +9845,10 @@
         <v>634</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>495</v>
+        <v>281</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -9872,13 +9857,13 @@
         <v>9590</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>393</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>694</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -9887,13 +9872,13 @@
         <v>19315</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>696</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9911,10 +9896,10 @@
         <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -9923,13 +9908,13 @@
         <v>1243</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -9938,13 +9923,13 @@
         <v>3366</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>702</v>
+        <v>578</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>607</v>
+        <v>497</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>662</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10000,7 +9985,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10012,13 +9997,13 @@
         <v>579799</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>703</v>
+        <v>288</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>632</v>
+        <v>700</v>
       </c>
       <c r="H28" s="7">
         <v>908</v>
@@ -10027,13 +10012,13 @@
         <v>769521</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="M28" s="7">
         <v>1464</v>
@@ -10042,13 +10027,13 @@
         <v>1349319</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>709</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10063,13 +10048,13 @@
         <v>21898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>414</v>
+        <v>705</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>710</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -10078,13 +10063,13 @@
         <v>13919</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>526</v>
+        <v>110</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>706</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
@@ -10093,13 +10078,13 @@
         <v>35816</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>711</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10114,13 +10099,13 @@
         <v>25739</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -10129,13 +10114,13 @@
         <v>16845</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>713</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
@@ -10144,13 +10129,13 @@
         <v>42583</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>715</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,13 +10203,13 @@
         <v>840822</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>70</v>
+        <v>717</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H32" s="7">
         <v>1027</v>
@@ -10233,13 +10218,13 @@
         <v>839252</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>534</v>
+        <v>719</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>721</v>
+        <v>472</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M32" s="7">
         <v>1771</v>
@@ -10248,13 +10233,13 @@
         <v>1680074</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>565</v>
+        <v>722</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>724</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10269,13 +10254,13 @@
         <v>16814</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -10284,10 +10269,10 @@
         <v>21319</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>570</v>
+        <v>726</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>726</v>
+        <v>102</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>208</v>
@@ -10299,13 +10284,13 @@
         <v>38133</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>727</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10320,13 +10305,13 @@
         <v>709</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>35</v>
+        <v>361</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -10335,13 +10320,13 @@
         <v>2224</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>729</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -10430,7 +10415,7 @@
         <v>734</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>735</v>
+        <v>13</v>
       </c>
       <c r="H36" s="7">
         <v>5096</v>
@@ -10439,13 +10424,13 @@
         <v>3639756</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>736</v>
+        <v>668</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>737</v>
+        <v>165</v>
       </c>
       <c r="M36" s="7">
         <v>8295</v>
@@ -10454,13 +10439,13 @@
         <v>6847135</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,13 +10460,13 @@
         <v>123784</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>742</v>
+        <v>643</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
@@ -10490,13 +10475,13 @@
         <v>137518</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>744</v>
+        <v>707</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>745</v>
+        <v>100</v>
       </c>
       <c r="M37" s="7">
         <v>318</v>
@@ -10505,13 +10490,13 @@
         <v>261302</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>56</v>
+        <v>742</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>494</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,13 +10511,13 @@
         <v>48058</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>747</v>
+        <v>500</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>748</v>
+        <v>390</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>749</v>
+        <v>298</v>
       </c>
       <c r="H38" s="7">
         <v>56</v>
@@ -10541,13 +10526,13 @@
         <v>41846</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>554</v>
+        <v>745</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>532</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
@@ -10556,13 +10541,13 @@
         <v>89904</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>347</v>
+        <v>520</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>751</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>660</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P05A04-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A04-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D37449-4349-46AC-AF13-92D108AAE22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61181BFF-C1E5-4B72-B13B-84626EC9D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{37174D39-CEE1-4A81-9C60-A28552652C00}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{84F62158-156C-492F-BC22-20ED2F1B56CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="762">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 99,02%)</t>
   </si>
@@ -758,7 +758,73 @@
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,17%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
   </si>
   <si>
     <t>80,87%</t>
@@ -893,1393 +959,1372 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
     <t>2,26%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,13%)</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
 </sst>
 </file>
@@ -2691,7 +2736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718A7B20-88B1-47EF-A2F3-D10966F4BDA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92458C07-F64C-494A-BE54-A18FB9D3C76A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4254,7 +4299,7 @@
         <v>608</v>
       </c>
       <c r="D32" s="7">
-        <v>618989</v>
+        <v>618990</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>186</v>
@@ -4407,7 +4452,7 @@
         <v>721</v>
       </c>
       <c r="D35" s="7">
-        <v>729412</v>
+        <v>729413</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>36</v>
@@ -4681,7 +4726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2106D835-6E81-4447-82D8-7550D48163A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB4F59C-4D1F-43CE-9948-7A06245C5439}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4799,43 +4844,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>270</v>
+      </c>
+      <c r="D4" s="7">
+        <v>282272</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>239</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="I4" s="7">
+        <v>259764</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>502</v>
+      </c>
+      <c r="N4" s="7">
+        <v>542036</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,43 +4895,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7389</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10658</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="N5" s="7">
+        <v>18048</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,43 +4946,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1783</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9616</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N6" s="7">
+        <v>11399</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,43 +4997,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>279</v>
+      </c>
+      <c r="D7" s="7">
+        <v>291444</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I7" s="7">
+        <v>280039</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="N7" s="7">
+        <v>571483</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +5056,13 @@
         <v>404165</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>401</v>
@@ -5002,13 +5071,13 @@
         <v>437505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>783</v>
@@ -5017,13 +5086,13 @@
         <v>841670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5107,13 @@
         <v>66344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -5053,13 +5122,13 @@
         <v>63725</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>131</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>120</v>
@@ -5068,13 +5137,13 @@
         <v>130069</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5158,13 @@
         <v>29285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5107,10 +5176,10 @@
         <v>95</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5122,10 +5191,10 @@
         <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5262,13 @@
         <v>312578</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
         <v>300</v>
@@ -5208,10 +5277,10 @@
         <v>323027</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>66</v>
@@ -5226,10 +5295,10 @@
         <v>168</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5313,13 @@
         <v>10516</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -5259,13 +5328,13 @@
         <v>13991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -5274,13 +5343,13 @@
         <v>24507</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,7 +5370,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5310,13 +5379,13 @@
         <v>1946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5325,13 +5394,13 @@
         <v>1946</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,49 +5462,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>602</v>
+        <v>332</v>
       </c>
       <c r="D16" s="7">
-        <v>641387</v>
+        <v>359115</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="H16" s="7">
-        <v>583</v>
+        <v>351</v>
       </c>
       <c r="I16" s="7">
-        <v>628540</v>
+        <v>368775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
-        <v>1185</v>
+        <v>683</v>
       </c>
       <c r="N16" s="7">
-        <v>1269927</v>
+        <v>727891</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,49 +5513,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7550</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H17" s="7">
         <v>13</v>
       </c>
-      <c r="D17" s="7">
-        <v>14939</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
       <c r="I17" s="7">
-        <v>23805</v>
+        <v>13147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>38744</v>
+        <v>20696</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,49 +5564,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1961</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
-        <v>3744</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H18" s="7">
-        <v>12</v>
-      </c>
       <c r="I18" s="7">
-        <v>12693</v>
+        <v>3077</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>302</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>16438</v>
+        <v>5038</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,10 +5615,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>618</v>
+        <v>339</v>
       </c>
       <c r="D19" s="7">
-        <v>660071</v>
+        <v>368626</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5561,10 +5630,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>617</v>
+        <v>367</v>
       </c>
       <c r="I19" s="7">
-        <v>665038</v>
+        <v>384999</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5576,10 +5645,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>1235</v>
+        <v>706</v>
       </c>
       <c r="N19" s="7">
-        <v>1325109</v>
+        <v>753626</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5605,13 +5674,13 @@
         <v>149442</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>147</v>
@@ -5620,13 +5689,13 @@
         <v>156096</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>283</v>
@@ -5635,13 +5704,13 @@
         <v>305538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5725,13 @@
         <v>45580</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="H21" s="7">
         <v>44</v>
@@ -5671,13 +5740,13 @@
         <v>42634</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="M21" s="7">
         <v>87</v>
@@ -5686,13 +5755,13 @@
         <v>88214</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5776,13 @@
         <v>17596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -5722,13 +5791,13 @@
         <v>20861</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5737,13 +5806,13 @@
         <v>38457</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5880,13 @@
         <v>265047</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="H24" s="7">
         <v>262</v>
@@ -5826,28 +5895,28 @@
         <v>272968</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>515</v>
       </c>
       <c r="N24" s="7">
-        <v>538016</v>
+        <v>538015</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5931,13 @@
         <v>6922</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5877,13 +5946,13 @@
         <v>6112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -5892,13 +5961,13 @@
         <v>13034</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5982,13 @@
         <v>2013</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5949,7 +6018,7 @@
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,7 +6060,7 @@
         <v>529</v>
       </c>
       <c r="N27" s="7">
-        <v>553062</v>
+        <v>553061</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -6017,13 +6086,13 @@
         <v>652899</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="H28" s="7">
         <v>623</v>
@@ -6032,13 +6101,13 @@
         <v>679550</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="M28" s="7">
         <v>1234</v>
@@ -6047,13 +6116,13 @@
         <v>1332449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>357</v>
+        <v>241</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,10 +6137,10 @@
         <v>3921</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>83</v>
@@ -6083,13 +6152,13 @@
         <v>6537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -6101,10 +6170,10 @@
         <v>85</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,7 +6194,7 @@
         <v>32</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -6134,13 +6203,13 @@
         <v>972</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6149,7 +6218,7 @@
         <v>972</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>31</v>
@@ -6223,13 +6292,13 @@
         <v>675181</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="H32" s="7">
         <v>666</v>
@@ -6238,13 +6307,13 @@
         <v>722149</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="M32" s="7">
         <v>1287</v>
@@ -6253,13 +6322,13 @@
         <v>1397330</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6343,13 @@
         <v>80673</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="H33" s="7">
         <v>77</v>
@@ -6289,13 +6358,13 @@
         <v>85891</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="M33" s="7">
         <v>151</v>
@@ -6304,13 +6373,13 @@
         <v>166565</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6394,13 @@
         <v>17185</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -6340,13 +6409,13 @@
         <v>7738</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>183</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -6355,13 +6424,13 @@
         <v>24923</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,16 +6495,16 @@
         <v>2913</v>
       </c>
       <c r="D36" s="7">
-        <v>3100699</v>
+        <v>3100700</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="H36" s="7">
         <v>2982</v>
@@ -6444,13 +6513,13 @@
         <v>3219833</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="M36" s="7">
         <v>5895</v>
@@ -6459,13 +6528,13 @@
         <v>6320533</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6549,13 @@
         <v>228895</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="H37" s="7">
         <v>227</v>
@@ -6495,13 +6564,13 @@
         <v>242696</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="M37" s="7">
         <v>438</v>
@@ -6510,13 +6579,13 @@
         <v>471591</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,10 +6603,10 @@
         <v>174</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="H38" s="7">
         <v>57</v>
@@ -6546,13 +6615,13 @@
         <v>60887</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="M38" s="7">
         <v>120</v>
@@ -6564,7 +6633,7 @@
         <v>56</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>231</v>
@@ -6579,7 +6648,7 @@
         <v>3187</v>
       </c>
       <c r="D39" s="7">
-        <v>3399416</v>
+        <v>3399417</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -6647,7 +6716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71D00F-AC65-4B78-A8EF-9B5150B03D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452EBE86-C0E0-4521-BB97-E242938FE59E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6664,7 +6733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6771,13 +6840,13 @@
         <v>242621</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>228</v>
@@ -6786,13 +6855,13 @@
         <v>238791</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>448</v>
@@ -6801,13 +6870,13 @@
         <v>481412</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,13 +6891,13 @@
         <v>37932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>37</v>
@@ -6837,13 +6906,13 @@
         <v>36569</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="M5" s="7">
         <v>70</v>
@@ -6852,13 +6921,13 @@
         <v>74501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,10 +6945,10 @@
         <v>101</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -6888,13 +6957,13 @@
         <v>9435</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -6903,13 +6972,13 @@
         <v>17491</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +7046,13 @@
         <v>363071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>350</v>
@@ -6992,13 +7061,13 @@
         <v>375656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>695</v>
@@ -7007,13 +7076,13 @@
         <v>738727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7028,13 +7097,13 @@
         <v>68516</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="H9" s="7">
         <v>60</v>
@@ -7043,13 +7112,13 @@
         <v>66189</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="M9" s="7">
         <v>125</v>
@@ -7058,13 +7127,13 @@
         <v>134705</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7148,13 @@
         <v>68869</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -7094,13 +7163,13 @@
         <v>77073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -7109,13 +7178,13 @@
         <v>145942</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7183,13 +7252,13 @@
         <v>302499</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="H12" s="7">
         <v>308</v>
@@ -7198,13 +7267,13 @@
         <v>312352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="M12" s="7">
         <v>627</v>
@@ -7213,10 +7282,10 @@
         <v>614851</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>162</v>
@@ -7234,13 +7303,13 @@
         <v>15041</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -7249,13 +7318,13 @@
         <v>20278</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -7264,13 +7333,13 @@
         <v>35319</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,7 +7360,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7306,7 +7375,7 @@
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7315,13 +7384,13 @@
         <v>902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,13 +7458,13 @@
         <v>353975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="H16" s="7">
         <v>346</v>
@@ -7407,10 +7476,10 @@
         <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="M16" s="7">
         <v>684</v>
@@ -7422,10 +7491,10 @@
         <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,13 +7509,13 @@
         <v>7962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7455,13 +7524,13 @@
         <v>7053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>514</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -7473,10 +7542,10 @@
         <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7560,13 @@
         <v>1868</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7506,13 +7575,13 @@
         <v>2888</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>520</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -7521,13 +7590,13 @@
         <v>4755</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>498</v>
+        <v>521</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>499</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,13 +7664,13 @@
         <v>182590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -7610,13 +7679,13 @@
         <v>181810</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>371</v>
@@ -7625,13 +7694,13 @@
         <v>364400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7646,13 +7715,13 @@
         <v>26653</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -7661,13 +7730,13 @@
         <v>29093</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="M21" s="7">
         <v>54</v>
@@ -7676,13 +7745,13 @@
         <v>55747</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7766,13 @@
         <v>1978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7715,10 +7784,10 @@
         <v>78</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -7727,13 +7796,13 @@
         <v>8681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>522</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,10 +7873,10 @@
         <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>524</v>
+        <v>546</v>
       </c>
       <c r="H24" s="7">
         <v>253</v>
@@ -7816,13 +7885,13 @@
         <v>262567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>292</v>
+        <v>547</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="M24" s="7">
         <v>497</v>
@@ -7831,13 +7900,13 @@
         <v>510883</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7921,13 @@
         <v>13832</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>530</v>
+        <v>254</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -7870,10 +7939,10 @@
         <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -7882,13 +7951,13 @@
         <v>22343</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,7 +7993,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8004,16 +8073,16 @@
         <v>502</v>
       </c>
       <c r="D28" s="7">
-        <v>567284</v>
+        <v>567283</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="H28" s="7">
         <v>560</v>
@@ -8022,13 +8091,13 @@
         <v>600449</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>1062</v>
@@ -8037,13 +8106,13 @@
         <v>1167733</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,16 +8124,16 @@
         <v>63</v>
       </c>
       <c r="D29" s="7">
-        <v>72085</v>
+        <v>72084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>548</v>
+        <v>570</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -8073,13 +8142,13 @@
         <v>73191</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>549</v>
+        <v>571</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>550</v>
+        <v>572</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>551</v>
+        <v>573</v>
       </c>
       <c r="M29" s="7">
         <v>132</v>
@@ -8088,13 +8157,13 @@
         <v>145275</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>552</v>
+        <v>574</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>553</v>
+        <v>575</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>554</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8178,13 @@
         <v>11419</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>555</v>
+        <v>577</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>530</v>
+        <v>254</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -8124,13 +8193,13 @@
         <v>9764</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -8139,13 +8208,13 @@
         <v>21184</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,7 +8226,7 @@
         <v>575</v>
       </c>
       <c r="D31" s="7">
-        <v>650788</v>
+        <v>650787</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -8213,13 +8282,13 @@
         <v>737629</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="H32" s="7">
         <v>721</v>
@@ -8228,13 +8297,13 @@
         <v>786355</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="M32" s="7">
         <v>1433</v>
@@ -8246,10 +8315,10 @@
         <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>570</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8333,13 @@
         <v>29404</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
@@ -8279,13 +8348,13 @@
         <v>30028</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="M33" s="7">
         <v>54</v>
@@ -8294,10 +8363,10 @@
         <v>59432</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>28</v>
@@ -8318,10 +8387,10 @@
         <v>35</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8330,13 +8399,13 @@
         <v>1085</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>578</v>
+        <v>257</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -8345,13 +8414,13 @@
         <v>4043</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>499</v>
+        <v>324</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8419,13 +8488,13 @@
         <v>2997987</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="H36" s="7">
         <v>2954</v>
@@ -8434,13 +8503,13 @@
         <v>3132330</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="M36" s="7">
         <v>5817</v>
@@ -8449,13 +8518,13 @@
         <v>6130317</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8470,13 +8539,13 @@
         <v>271425</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="H37" s="7">
         <v>253</v>
@@ -8485,13 +8554,13 @@
         <v>270913</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="M37" s="7">
         <v>506</v>
@@ -8503,10 +8572,10 @@
         <v>134</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,13 +8590,13 @@
         <v>95148</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>293</v>
+        <v>613</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="H38" s="7">
         <v>101</v>
@@ -8536,13 +8605,13 @@
         <v>107850</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="M38" s="7">
         <v>189</v>
@@ -8551,13 +8620,13 @@
         <v>202997</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>597</v>
+        <v>248</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>598</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8637,7 +8706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7835C95A-FEC3-4471-A78B-86647165BA12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3242BC-DE45-460B-B036-FC86E617A6C9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8654,7 +8723,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8758,28 +8827,28 @@
         <v>330</v>
       </c>
       <c r="D4" s="7">
-        <v>259671</v>
+        <v>310791</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
       </c>
       <c r="I4" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -8788,16 +8857,16 @@
         <v>868</v>
       </c>
       <c r="N4" s="7">
-        <v>531073</v>
+        <v>600425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>605</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8809,16 +8878,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>497</v>
+        <v>624</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>520</v>
+        <v>625</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8839,16 +8908,16 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>606</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8899,7 +8968,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,7 +8980,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -8926,7 +8995,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -8941,7 +9010,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -8964,46 +9033,46 @@
         <v>346</v>
       </c>
       <c r="D8" s="7">
-        <v>477493</v>
+        <v>478123</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>569</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>648</v>
       </c>
       <c r="I8" s="7">
-        <v>502536</v>
+        <v>466641</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="M8" s="7">
         <v>994</v>
       </c>
       <c r="N8" s="7">
-        <v>980029</v>
+        <v>944766</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>613</v>
+        <v>421</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9015,46 +9084,46 @@
         <v>29</v>
       </c>
       <c r="D9" s="7">
-        <v>33934</v>
+        <v>32581</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>617</v>
+        <v>295</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="H9" s="7">
         <v>48</v>
       </c>
       <c r="I9" s="7">
-        <v>36706</v>
+        <v>33923</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>621</v>
+        <v>223</v>
       </c>
       <c r="M9" s="7">
         <v>77</v>
       </c>
       <c r="N9" s="7">
-        <v>70640</v>
+        <v>66504</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>158</v>
+        <v>639</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>622</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>377</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,46 +9135,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5354</v>
+        <v>5262</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>11436</v>
+        <v>10889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>624</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>625</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>295</v>
+        <v>642</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>16790</v>
+        <v>16151</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>626</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9117,7 +9186,7 @@
         <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>516780</v>
+        <v>515967</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -9132,7 +9201,7 @@
         <v>712</v>
       </c>
       <c r="I11" s="7">
-        <v>550678</v>
+        <v>511453</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -9147,7 +9216,7 @@
         <v>1092</v>
       </c>
       <c r="N11" s="7">
-        <v>1067458</v>
+        <v>1027421</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -9170,46 +9239,46 @@
         <v>336</v>
       </c>
       <c r="D12" s="7">
-        <v>297171</v>
+        <v>291126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="H12" s="7">
         <v>500</v>
       </c>
       <c r="I12" s="7">
-        <v>345840</v>
+        <v>323561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>17</v>
+        <v>647</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>631</v>
+        <v>648</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="M12" s="7">
         <v>836</v>
       </c>
       <c r="N12" s="7">
-        <v>643011</v>
+        <v>614687</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>17</v>
+        <v>650</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9221,46 +9290,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>11231</v>
+        <v>11172</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>634</v>
+        <v>106</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>636</v>
+        <v>653</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>17910</v>
+        <v>16694</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>637</v>
+        <v>654</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>655</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
       </c>
       <c r="N13" s="7">
-        <v>29140</v>
+        <v>27866</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9272,46 +9341,46 @@
         <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>11752</v>
+        <v>11728</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>572</v>
+        <v>208</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
       </c>
       <c r="I14" s="7">
-        <v>8794</v>
+        <v>8173</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>660</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>642</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>20547</v>
+        <v>19901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>234</v>
+        <v>662</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9323,7 +9392,7 @@
         <v>358</v>
       </c>
       <c r="D15" s="7">
-        <v>320154</v>
+        <v>314026</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -9338,7 +9407,7 @@
         <v>535</v>
       </c>
       <c r="I15" s="7">
-        <v>372544</v>
+        <v>348428</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -9353,7 +9422,7 @@
         <v>893</v>
       </c>
       <c r="N15" s="7">
-        <v>692698</v>
+        <v>662454</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -9376,46 +9445,46 @@
         <v>285</v>
       </c>
       <c r="D16" s="7">
-        <v>316142</v>
+        <v>306695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="H16" s="7">
         <v>579</v>
       </c>
       <c r="I16" s="7">
-        <v>410286</v>
+        <v>459403</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>667</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>146</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>864</v>
       </c>
       <c r="N16" s="7">
-        <v>726428</v>
+        <v>766097</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>651</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9427,46 +9496,46 @@
         <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>5222</v>
+        <v>5027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>652</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>654</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>15865</v>
+        <v>14065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>655</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>657</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>21087</v>
+        <v>19091</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>659</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>660</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9478,7 +9547,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>876</v>
+        <v>835</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>105</v>
@@ -9487,37 +9556,37 @@
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>560</v>
+        <v>674</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>1304</v>
+        <v>1229</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>661</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>626</v>
+        <v>85</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>2180</v>
+        <v>2065</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>159</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9529,7 +9598,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -9544,7 +9613,7 @@
         <v>597</v>
       </c>
       <c r="I19" s="7">
-        <v>427455</v>
+        <v>474697</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -9559,7 +9628,7 @@
         <v>889</v>
       </c>
       <c r="N19" s="7">
-        <v>749695</v>
+        <v>787253</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -9582,46 +9651,46 @@
         <v>247</v>
       </c>
       <c r="D20" s="7">
-        <v>170908</v>
+        <v>155529</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="H20" s="7">
         <v>453</v>
       </c>
       <c r="I20" s="7">
-        <v>236852</v>
+        <v>238519</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>667</v>
+        <v>603</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="M20" s="7">
         <v>700</v>
       </c>
       <c r="N20" s="7">
-        <v>407760</v>
+        <v>394047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9633,46 +9702,46 @@
         <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>24335</v>
+        <v>21852</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="H21" s="7">
         <v>41</v>
       </c>
       <c r="I21" s="7">
-        <v>22209</v>
+        <v>19848</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="M21" s="7">
         <v>71</v>
       </c>
       <c r="N21" s="7">
-        <v>46544</v>
+        <v>41700</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9684,16 +9753,16 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>1506</v>
+        <v>1361</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9708,22 +9777,22 @@
         <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1506</v>
+        <v>1361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>681</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9735,7 +9804,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -9750,7 +9819,7 @@
         <v>494</v>
       </c>
       <c r="I23" s="7">
-        <v>259061</v>
+        <v>258367</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -9765,7 +9834,7 @@
         <v>773</v>
       </c>
       <c r="N23" s="7">
-        <v>455809</v>
+        <v>437109</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -9788,46 +9857,46 @@
         <v>355</v>
       </c>
       <c r="D24" s="7">
-        <v>265375</v>
+        <v>258165</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="H24" s="7">
         <v>443</v>
       </c>
       <c r="I24" s="7">
-        <v>264067</v>
+        <v>246437</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>687</v>
+        <v>313</v>
       </c>
       <c r="M24" s="7">
         <v>798</v>
       </c>
       <c r="N24" s="7">
-        <v>529442</v>
+        <v>504602</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>689</v>
+        <v>291</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9839,46 +9908,46 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>9725</v>
+        <v>9476</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>634</v>
+        <v>703</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>520</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>9590</v>
+        <v>8804</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>692</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>706</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
       </c>
       <c r="N25" s="7">
-        <v>19315</v>
+        <v>18281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>693</v>
+        <v>408</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>293</v>
+        <v>707</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9890,46 +9959,46 @@
         <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>2123</v>
+        <v>1994</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>406</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1243</v>
+        <v>1148</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>698</v>
+        <v>255</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>3366</v>
+        <v>3142</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>578</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9941,7 +10010,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>36</v>
@@ -9956,7 +10025,7 @@
         <v>459</v>
       </c>
       <c r="I27" s="7">
-        <v>274900</v>
+        <v>256389</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>36</v>
@@ -9971,7 +10040,7 @@
         <v>830</v>
       </c>
       <c r="N27" s="7">
-        <v>552123</v>
+        <v>526025</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -9994,46 +10063,46 @@
         <v>556</v>
       </c>
       <c r="D28" s="7">
-        <v>579799</v>
+        <v>576096</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>288</v>
+        <v>711</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>700</v>
+        <v>94</v>
       </c>
       <c r="H28" s="7">
         <v>908</v>
       </c>
       <c r="I28" s="7">
-        <v>769521</v>
+        <v>816891</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="M28" s="7">
         <v>1464</v>
       </c>
       <c r="N28" s="7">
-        <v>1349319</v>
+        <v>1392987</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>287</v>
+        <v>716</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10045,46 +10114,46 @@
         <v>20</v>
       </c>
       <c r="D29" s="7">
-        <v>21898</v>
+        <v>22015</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>720</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
       </c>
       <c r="I29" s="7">
-        <v>13919</v>
+        <v>13014</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>233</v>
+        <v>721</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="M29" s="7">
         <v>45</v>
       </c>
       <c r="N29" s="7">
-        <v>35816</v>
+        <v>35028</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>723</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10096,46 +10165,46 @@
         <v>21</v>
       </c>
       <c r="D30" s="7">
-        <v>25739</v>
+        <v>25840</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>708</v>
+        <v>103</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
       </c>
       <c r="I30" s="7">
-        <v>16845</v>
+        <v>15659</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>711</v>
+        <v>96</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>712</v>
+        <v>34</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="M30" s="7">
         <v>41</v>
       </c>
       <c r="N30" s="7">
-        <v>42583</v>
+        <v>41499</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>714</v>
+        <v>657</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>715</v>
+        <v>432</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>617</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10147,7 +10216,7 @@
         <v>597</v>
       </c>
       <c r="D31" s="7">
-        <v>627435</v>
+        <v>623951</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>36</v>
@@ -10162,7 +10231,7 @@
         <v>953</v>
       </c>
       <c r="I31" s="7">
-        <v>800284</v>
+        <v>845564</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>36</v>
@@ -10177,7 +10246,7 @@
         <v>1550</v>
       </c>
       <c r="N31" s="7">
-        <v>1427718</v>
+        <v>1469515</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>36</v>
@@ -10200,46 +10269,46 @@
         <v>744</v>
       </c>
       <c r="D32" s="7">
-        <v>840822</v>
+        <v>912821</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>717</v>
+        <v>89</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="H32" s="7">
         <v>1027</v>
       </c>
       <c r="I32" s="7">
-        <v>839252</v>
+        <v>693454</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>472</v>
+        <v>732</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="M32" s="7">
         <v>1771</v>
       </c>
       <c r="N32" s="7">
-        <v>1680074</v>
+        <v>1606275</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>266</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10251,46 +10320,46 @@
         <v>16</v>
       </c>
       <c r="D33" s="7">
-        <v>16814</v>
+        <v>14369</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="H33" s="7">
         <v>26</v>
       </c>
       <c r="I33" s="7">
-        <v>21319</v>
+        <v>17891</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>726</v>
+        <v>581</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>102</v>
+        <v>432</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="M33" s="7">
         <v>42</v>
       </c>
       <c r="N33" s="7">
-        <v>38133</v>
+        <v>32260</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>385</v>
+        <v>662</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>727</v>
+        <v>515</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10302,46 +10371,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>709</v>
+        <v>620</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>729</v>
+        <v>387</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>361</v>
+        <v>741</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>2224</v>
+        <v>1880</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>108</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>483</v>
+        <v>33</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>2933</v>
+        <v>2500</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>730</v>
+        <v>327</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>732</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10353,7 +10422,7 @@
         <v>761</v>
       </c>
       <c r="D35" s="7">
-        <v>858345</v>
+        <v>927810</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>36</v>
@@ -10368,7 +10437,7 @@
         <v>1056</v>
       </c>
       <c r="I35" s="7">
-        <v>862795</v>
+        <v>713225</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>36</v>
@@ -10383,7 +10452,7 @@
         <v>1817</v>
       </c>
       <c r="N35" s="7">
-        <v>1721140</v>
+        <v>1641035</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>36</v>
@@ -10406,46 +10475,46 @@
         <v>3199</v>
       </c>
       <c r="D36" s="7">
-        <v>3207380</v>
+        <v>3289346</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>13</v>
+        <v>745</v>
       </c>
       <c r="H36" s="7">
         <v>5096</v>
       </c>
       <c r="I36" s="7">
-        <v>3639756</v>
+        <v>3534542</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>267</v>
+        <v>746</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>165</v>
+        <v>748</v>
       </c>
       <c r="M36" s="7">
         <v>8295</v>
       </c>
       <c r="N36" s="7">
-        <v>6847135</v>
+        <v>6823887</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10457,46 +10526,46 @@
         <v>126</v>
       </c>
       <c r="D37" s="7">
-        <v>123784</v>
+        <v>117144</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>643</v>
+        <v>248</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>739</v>
+        <v>321</v>
       </c>
       <c r="H37" s="7">
         <v>192</v>
       </c>
       <c r="I37" s="7">
-        <v>137518</v>
+        <v>124239</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>707</v>
+        <v>753</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>100</v>
+        <v>755</v>
       </c>
       <c r="M37" s="7">
         <v>318</v>
       </c>
       <c r="N37" s="7">
-        <v>261302</v>
+        <v>241383</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10508,46 +10577,46 @@
         <v>44</v>
       </c>
       <c r="D38" s="7">
-        <v>48058</v>
+        <v>47642</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>298</v>
+        <v>759</v>
       </c>
       <c r="H38" s="7">
         <v>56</v>
       </c>
       <c r="I38" s="7">
-        <v>41846</v>
+        <v>38978</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>745</v>
+        <v>180</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>532</v>
+        <v>579</v>
       </c>
       <c r="M38" s="7">
         <v>100</v>
       </c>
       <c r="N38" s="7">
-        <v>89904</v>
+        <v>86620</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>520</v>
+        <v>77</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10559,7 +10628,7 @@
         <v>3369</v>
       </c>
       <c r="D39" s="7">
-        <v>3379222</v>
+        <v>3454132</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>36</v>
@@ -10574,7 +10643,7 @@
         <v>5344</v>
       </c>
       <c r="I39" s="7">
-        <v>3819120</v>
+        <v>3697759</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>36</v>
@@ -10589,7 +10658,7 @@
         <v>8713</v>
       </c>
       <c r="N39" s="7">
-        <v>7198341</v>
+        <v>7151890</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>36</v>
